--- a/docs/mcode-r4/shr-core-Timing.xlsx
+++ b/docs/mcode-r4/shr-core-Timing.xlsx
@@ -286,7 +286,7 @@
     <t>Timing.repeat.bounds[x]</t>
   </si>
   <si>
-    <t>Duration {http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Duration}
+    <t>Duration {http://hl7.org/fhir/us/mcode/StructureDefinition/shr-core-Duration}
 RangePeriod</t>
   </si>
   <si>
